--- a/output3.xlsx
+++ b/output3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -612,12 +612,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PROD 3.1.3</t>
+          <t>PROD 3.1.2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -628,7 +628,7 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>A proportionate application of the requirements in this chapter may mean that complying with the rules could be relatively simple for simple financial instruments distributed on an execution-only transaction basis where such financial instruments would be compatible with the needs and characteristics of the mass retail market.</t>
+          <t>[Note: articles 9(1) and 10(1) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PROD 3.2.1</t>
+          <t>PROD 3.1.3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -651,14 +651,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ensure that the financial instruments it manufactures are designed to meet the needs of an identified target market of end clients within the relevant category of clients (see COBS 3 for client categories); </t>
+          <t>A proportionate application of the requirements in this chapter may mean that complying with the rules could be relatively simple for simple financial instruments distributed on an execution-only transaction basis where such financial instruments would be compatible with the needs and characteristics of the mass retail market.</t>
         </is>
       </c>
     </row>
@@ -681,14 +677,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ensure that the strategy for distribution of the financial instruments is compatible with the identified target market; and </t>
+          <t>1A manufacturer must:</t>
         </is>
       </c>
     </row>
@@ -713,12 +705,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>take reasonable steps to ensure that the financial instrument is distributed to the identified target market.</t>
+          <t>ensure that the financial instruments it manufactures are designed to meet the needs of an identified target market of end clients within the relevant category of clients (see COBS 3 for client categories);</t>
         </is>
       </c>
     </row>
@@ -728,12 +720,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PROD 3.2.2</t>
+          <t>PROD 3.2.1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -741,10 +733,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Consideration of target market factors should permeate all aspects of product development and distribution, as well as ensuring the selection of appropriate distribution channels and the promotion of the financial instruments are accompanied by sufficient and correct information.</t>
+          <t>ensure that the strategy for distribution of the financial instruments is compatible with the identified target market; and</t>
         </is>
       </c>
     </row>
@@ -754,7 +750,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROD 3.2.3</t>
+          <t>PROD 3.2.1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -769,12 +765,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>each financial instrument, and</t>
+          <t>take reasonable steps to ensure that the financial instrument is distributed to the identified target market.</t>
         </is>
       </c>
     </row>
@@ -784,7 +780,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROD 3.2.3</t>
+          <t>PROD 3.2.1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -797,14 +793,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>significant adaptations of existing financial instruments,</t>
+          <t>[Note: article 24(2) of MiFID]</t>
         </is>
       </c>
     </row>
@@ -814,12 +806,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROD 3.2.4</t>
+          <t>PROD 3.2.2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -827,14 +819,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">specify an identified target market of end clients within the relevant category of clients (see COBS 3 for client categories); </t>
+          <t>Consideration of target market factors should permeate all aspects of product development and distribution, as well as ensuring the selection of appropriate distribution channels and the promotion of the financial instruments are accompanied by sufficient and correct information.</t>
         </is>
       </c>
     </row>
@@ -844,7 +832,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROD 3.2.4</t>
+          <t>PROD 3.2.3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -857,14 +845,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ensure that all relevant risks to the identified target market are assessed; and</t>
+          <t>A manufacturer must maintain, operate and review a process for the approval of:</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROD 3.2.4</t>
+          <t>PROD 3.2.3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -889,12 +873,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ensure that the intended distribution strategy is consistent with the identified target market.</t>
+          <t>each financial instrument, and</t>
         </is>
       </c>
     </row>
@@ -904,12 +888,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROD 3.2.5</t>
+          <t>PROD 3.2.3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -917,10 +901,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>When designing financial instruments, a firm should have in place systems and controls to manage adequately the risks posed by financial instrument design.</t>
+          <t>significant adaptations of existing financial instruments,</t>
         </is>
       </c>
     </row>
@@ -930,7 +918,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROD 3.2.6</t>
+          <t>PROD 3.2.3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -946,7 +934,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Where firms collaborate to manufacture a financial instrument, only one target market needs to be identified.</t>
+          <t>in each case before they are marketed or distributed to clients.</t>
         </is>
       </c>
     </row>
@@ -956,7 +944,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROD 3.2.6</t>
+          <t>PROD 3.2.3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -972,7 +960,7 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[Note: article 9(9) of the MiFID Delegated Directive]</t>
+          <t>[Note: article 16(3) of MiFID]</t>
         </is>
       </c>
     </row>
@@ -982,7 +970,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROD 3.2.7</t>
+          <t>PROD 3.2.4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -992,13 +980,13 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Where firms collaborate, including with entities which are not authorised and supervised in accordance with UK provisions implementing3MiFID or third countryinvestment firms, to create, develop, issue and/or design a financial instrument, they must outline their mutual responsibilities in a written agreement.</t>
+          <t>For each financial instrument the product approval process must:</t>
         </is>
       </c>
     </row>
@@ -1008,7 +996,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PROD 3.2.7</t>
+          <t>PROD 3.2.4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1018,13 +1006,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[Note: article 9(8) of the MiFID Delegated Directive]</t>
+          <t>specify an identified target market of end clients within the relevant category of clients (see COBS 3 for client categories);</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1026,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PROD 3.2.8</t>
+          <t>PROD 3.2.4</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1049,12 +1041,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>specify the type or types of client for whose needs, characteristics and objectives the financial instrument is compatible; and</t>
+          <t>ensure that all relevant risks to the identified target market are assessed; and</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1056,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PROD 3.2.8</t>
+          <t>PROD 3.2.4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1079,12 +1071,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">identify any group or groups of client for whose needs, characteristics and objectives the financial instrument is not compatible. </t>
+          <t>ensure that the intended distribution strategy is consistent with the identified target market.</t>
         </is>
       </c>
     </row>
@@ -1094,12 +1086,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PROD 3.2.9</t>
+          <t>PROD 3.2.4</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1110,7 +1102,7 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>The level of granularity of the target market and the criteria used to define the target market and determine the appropriate distribution strategy should be relevant for the financial instrument and should make it possible to assess which clients fall within the target market. For simpler, more common financial instruments, the target market could be identified with less detail while for more complicated financial instruments such as bail-inable instruments or less common financial instruments, the target market should be identified with more detail.</t>
+          <t>[Note: article 16(3) of MiFID]</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1112,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PROD 3.2.9</t>
+          <t>PROD 3.2.5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1136,7 +1128,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[Note: recital 19 of the MiFID Delegated Directive]</t>
+          <t>When designing financial instruments, a firm should have in place systems and controls to manage adequately the risks posed by financial instrument design.</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1138,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PROD 3.2.10</t>
+          <t>PROD 3.2.6</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1159,14 +1151,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>whether the financial instrument’s risk/reward profile is consistent with the target market; and</t>
+          <t>Where firms collaborate to manufacture a financial instrument, only one target market needs to be identified.</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1164,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PROD 3.2.10</t>
+          <t>PROD 3.2.6</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1189,14 +1177,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>whether the design of the financial instrument is driven by features that benefit the client and not by a business model which relies on poor client outcomes to be profitable.</t>
+          <t>[Note: article 9(9) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1190,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PROD 3.2.11</t>
+          <t>PROD 3.2.7</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1216,17 +1200,13 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>their theoretical knowledge of, and past experience with, the financial instrument or similar financial instruments;</t>
+          <t>Where firms collaborate, including with entities which are not authorised and supervised in accordance with UK provisions implementing3MiFID or third countryinvestment firms, to create, develop, issue and/or design a financial instrument, they must outline their mutual responsibilities in a written agreement.</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1216,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PROD 3.2.11</t>
+          <t>PROD 3.2.7</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1246,17 +1226,13 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>the financial markets, and</t>
+          <t>[Note: article 9(8) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1242,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROD 3.2.11</t>
+          <t>PROD 3.2.8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1279,14 +1255,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>the needs, characteristics and objectives of potential end clients.</t>
+          <t>Manufacturers must identify the potential target market for each financial instrument at a sufficiently granular level and must:</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1268,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROD 3.2.12</t>
+          <t>PROD 3.2.8</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1311,12 +1283,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>the risks of poor outcomes for end clients posed by the financial instrument; and</t>
+          <t>specify the type or types of client for whose needs, characteristics and objectives the financial instrument is compatible; and</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1298,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROD 3.2.12</t>
+          <t>PROD 3.2.8</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1341,12 +1313,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>in which circumstances those poor outcomes may occur.</t>
+          <t>identify any group or groups of client for whose needs, characteristics and objectives the financial instrument is not compatible.</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1328,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROD 3.2.13</t>
+          <t>PROD 3.2.8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1369,14 +1341,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>the market environment deteriorated; or</t>
+          <t>[Note: article 9(9) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1354,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROD 3.2.13</t>
+          <t>PROD 3.2.9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1399,14 +1367,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>the manufacturer or a third party involved in manufacturing and/or the functioning of the financial instrument experiences financial difficulties or other counterparty risk materialises; or</t>
+          <t>The level of granularity of the target market and the criteria used to define the target market and determine the appropriate distribution strategy should be relevant for the financial instrument and should make it possible to assess which clients fall within the target market. For simpler, more common financial instruments, the target market could be identified with less detail while for more complicated financial instruments such as bail-inable instruments or less common financial instruments, the target market should be identified with more detail.</t>
         </is>
       </c>
     </row>
@@ -1416,12 +1380,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PROD 3.2.13</t>
+          <t>PROD 3.2.9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1429,14 +1393,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>the financial instrument fails to become commercially viable; or</t>
+          <t>[Note: recital 19 of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1406,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PROD 3.2.13</t>
+          <t>PROD 3.2.10</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1459,14 +1419,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>demand for the financial instrument is much higher than anticipated, putting a strain on the firm’s resources and/or on the market of the underlying financial instrument.</t>
+          <t>Manufacturers must determine for each financial instrument they manufacture, whether it meets the identified needs, characteristics and objectives of the target market, and in doing so must include an examination of the following elements:</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1432,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>PROD 3.2.14</t>
+          <t>PROD 3.2.10</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1491,12 +1447,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>whether the financial instrument’s costs and charges are compatible with the needs, objectives and characteristics of the target market;</t>
+          <t>whether the financial instrument’s risk/reward profile is consistent with the target market; and</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1462,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>PROD 3.2.14</t>
+          <t>PROD 3.2.10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1521,12 +1477,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>whether the charges undermine the financial instrument’s return expectations, such as where the costs or charges equal, exceed or remove almost all the expected tax advantages linked to a financial instrument; and</t>
+          <t>whether the design of the financial instrument is driven by features that benefit the client and not by a business model which relies on poor client outcomes to be profitable.</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1492,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PROD 3.2.14</t>
+          <t>PROD 3.2.10</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1549,14 +1505,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>whether the charging structure of the financial instrument is appropriately transparent for the target market, such as that it does not disguise charges or is too complex to understand.</t>
+          <t>[Note: article 9(11) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1518,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PROD 3.2.15</t>
+          <t>PROD 3.2.11</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1582,7 +1534,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Manufacturers must consider whether the financial instrument may represent a threat to the orderly functioning, or to the stability, of financial markets before deciding to proceed with the launch of the financial instrument.</t>
+          <t>Manufacturers of financial instruments that are distributed through other firms must determine the needs and characteristics of the clients for whom the product is compatible based on:</t>
         </is>
       </c>
     </row>
@@ -1592,7 +1544,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>PROD 3.2.15</t>
+          <t>PROD 3.2.11</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1605,10 +1557,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[Note: article 9(4) of the MiFID Delegated Directive]</t>
+          <t>their theoretical knowledge of, and past experience with, the financial instrument or similar financial instruments;</t>
         </is>
       </c>
     </row>
@@ -1618,7 +1574,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROD 3.2.16</t>
+          <t>PROD 3.2.11</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1633,12 +1589,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>all appropriate information on the financial instrument;</t>
+          <t>the financial markets, and</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1604,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PROD 3.2.16</t>
+          <t>PROD 3.2.11</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1663,12 +1619,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>all appropriate information on the product approval process;</t>
+          <t>the needs, characteristics and objectives of potential end clients.</t>
         </is>
       </c>
     </row>
@@ -1678,7 +1634,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PROD 3.2.16</t>
+          <t>PROD 3.2.11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1691,14 +1647,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">the identified target market of the financial instrument, including information about the target market assessment undertaken; </t>
+          <t>[Note: article 9(9) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1660,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>PROD 3.2.16</t>
+          <t>PROD 3.2.12</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1721,14 +1673,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>information about the appropriate channels for distribution of the financial instrument;</t>
+          <t>Manufacturers must undertake a scenario analysis of their financial instruments to assess:</t>
         </is>
       </c>
     </row>
@@ -1738,12 +1686,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PROD 3.2.17</t>
+          <t>PROD 3.2.12</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1751,10 +1699,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>When providing information to distributors, a manufacturer should make it clear if that information is not intended for end client use.</t>
+          <t>the risks of poor outcomes for end clients posed by the financial instrument; and</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1716,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PROD 3.2.18</t>
+          <t>PROD 3.2.12</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1777,10 +1729,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Manufacturers may consider, for example, with regard to each distribution channel or type of distributor what information distributors of that type already have, their likely level of knowledge and understanding, their information needs and what form or medium would best meet those needs (which could include discussions, written material or training as appropriate).</t>
+          <t>in which circumstances those poor outcomes may occur.</t>
         </is>
       </c>
     </row>
@@ -1790,7 +1746,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PROD 3.2.19</t>
+          <t>PROD 3.2.12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1803,14 +1759,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>A manufacturer must regularly review the financial instruments it manufactures taking into account any event that could materially affect the potential risk to the identified target market.</t>
+          <t>[Note: article 9(10) MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1772,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PROD 3.2.19</t>
+          <t>PROD 3.2.13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1833,14 +1785,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>In doing so, a manufacturer must assess for each financial instrument at least the following:</t>
+          <t>In conducting the scenario analysis manufacturers must assess their financial instruments under negative conditions covering what would happen if, for example:</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1798,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PROD 3.2.19</t>
+          <t>PROD 3.2.13</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1865,12 +1813,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">(a) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>whether the financial instrument remains consistent with the needs, characteristics and objectives of the identified target market;</t>
+          <t>the market environment deteriorated; or</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1828,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROD 3.2.19</t>
+          <t>PROD 3.2.13</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1895,12 +1843,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>whether the intended distribution strategy remains appropriate;</t>
+          <t>the manufacturer or a third party involved in manufacturing and/or the functioning of the financial instrument experiences financial difficulties or other counterparty risk materialises; or</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1858,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROD 3.2.19</t>
+          <t>PROD 3.2.13</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1925,12 +1873,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>whether the financial instrument is being distributed to the target market; and</t>
+          <t>the financial instrument fails to become commercially viable; or</t>
         </is>
       </c>
     </row>
@@ -1940,7 +1888,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROD 3.2.19</t>
+          <t>PROD 3.2.13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1955,12 +1903,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">(d) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>whether the financial instrument is reaching clients for whose needs, characteristics and objectives the financial instrument is not compatible.</t>
+          <t>demand for the financial instrument is much higher than anticipated, putting a strain on the firm’s resources and/or on the market of the underlying financial instrument.</t>
         </is>
       </c>
     </row>
@@ -1970,12 +1918,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROD 3.2.20</t>
+          <t>PROD 3.2.13</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1986,7 +1934,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>In carrying out the reviews in PROD 3.2.19Rmanufacturers should collect and analyse appropriate management information to detect patterns in distribution as compared with the planned target market in order to assess the performance of the distribution channels through which a financial instrument is being distributed.</t>
+          <t>[Note: article 9(10) MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1944,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROD 3.2.21</t>
+          <t>PROD 3.2.14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2009,14 +1957,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>When reviewing the financial instruments it manufactures, a firm should communicate to the end client contractual “breakpoints” such as the end of a long tie-in period that may have a material impact on the end client that the end client cannot reasonably be expected to recall or know about already.</t>
+          <t>Manufacturers must consider the charging structure proposed for each financial instrument, including examination of the following:</t>
         </is>
       </c>
     </row>
@@ -2026,12 +1970,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROD 3.2.21</t>
+          <t>PROD 3.2.14</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2041,12 +1985,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>If the manufacturer does not know the identity of the end client, it should communicate any contractual breakpoints to the distributor.</t>
+          <t>whether the financial instrument’s costs and charges are compatible with the needs, objectives and characteristics of the target market;</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2000,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROD 3.2.22</t>
+          <t>PROD 3.2.14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2071,12 +2015,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>review financial instruments prior to any further issue or re-launch if they are aware of any event that could materially affect the potential risk to clients; and</t>
+          <t>whether the charges undermine the financial instrument’s return expectations, such as where the costs or charges equal, exceed or remove almost all the expected tax advantages linked to a financial instrument; and</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2030,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROD 3.2.22</t>
+          <t>PROD 3.2.14</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2101,12 +2045,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>identify crucial events that would affect the potential risk or return expectations of the financial instrument.</t>
+          <t>whether the charging structure of the financial instrument is appropriately transparent for the target market, such as that it does not disguise charges or is too complex to understand.</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2060,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROD 3.2.23</t>
+          <t>PROD 3.2.14</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2129,14 +2073,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>the crossing of a threshold that will affect the return profile of the financial instrument; or</t>
+          <t>[Note: article 9(12) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2086,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>PROD 3.2.23</t>
+          <t>PROD 3.2.15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2159,14 +2099,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>the solvency of certain issuers whose securities and guarantees may impact the performance of the financial instrument.</t>
+          <t>Manufacturers must consider whether the financial instrument may represent a threat to the orderly functioning, or to the stability, of financial markets before deciding to proceed with the launch of the financial instrument.</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2112,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2186,17 +2122,13 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>the provision of any relevant information on the event and its consequences on the financial instrument to the clients or distributors of the financial instrument if the manufacturer does not offer or sell the financial instrument directly to the clients;</t>
+          <t>[Note: article 9(4) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2138,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2216,17 +2148,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>changing the product approval process;</t>
+          <t>A manufacturer must make available to any distributor of that financial instrument:</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2164,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2246,17 +2174,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>stopping further issuance of the financial instrument;</t>
+          <t>all appropriate information on the financial instrument;</t>
         </is>
       </c>
     </row>
@@ -2266,7 +2194,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2276,17 +2204,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>changing the financial instrument to avoid unfair contract terms;</t>
+          <t>all appropriate information on the product approval process;</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2224,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2306,17 +2234,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>considering whether the sales channels through which the financial instrument is sold are appropriate where the manufacturer becomes aware that the financial instrument is not being sold as envisaged;</t>
+          <t>the identified target market of the financial instrument, including information about the target market assessment undertaken;</t>
         </is>
       </c>
     </row>
@@ -2326,7 +2254,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2336,17 +2264,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">(6) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>contacting the distributor to discuss a modification of the distribution process;</t>
+          <t>information about the appropriate channels for distribution of the financial instrument;</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2284,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2366,17 +2294,13 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(7) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>terminating the relationship with the distributor; or</t>
+          <t>and must ensure that the information is of an adequate standard to enable distributors to understand and recommend or sell the financial instrument properly.</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2310,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>PROD 3.2.24</t>
+          <t>PROD 3.2.16</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2396,17 +2320,13 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(8) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>informing the FCA.2</t>
+          <t>[Note: article 16(3) of MiFID II and 9(13) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2336,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PROD 3.2.25</t>
+          <t>PROD 3.2.17</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2432,7 +2352,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Manufacturers must review financial instruments at regular intervals to assess whether they function as intended.</t>
+          <t>When providing information to distributors, a manufacturer should make it clear if that information is not intended for end client use.</t>
         </is>
       </c>
     </row>
@@ -2442,12 +2362,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>PROD 3.2.26</t>
+          <t>PROD 3.2.18</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2458,7 +2378,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Manufacturers must determine how regularly to review their financial instruments based on relevant factors including factors linked to the complexity or the innovative nature of the investment strategies pursued.</t>
+          <t>Manufacturers may consider, for example, with regard to each distribution channel or type of distributor what information distributors of that type already have, their likely level of knowledge and understanding, their information needs and what form or medium would best meet those needs (which could include discussions, written material or training as appropriate).</t>
         </is>
       </c>
     </row>
@@ -2468,7 +2388,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROD 3.2.26</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2481,10 +2401,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[Note: article 9(15) of the MiFID Delegated Directive]</t>
+          <t>A manufacturer must regularly review the financial instruments it manufactures taking into account any event that could materially affect the potential risk to the identified target market.</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2418,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROD 3.2.27</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2507,10 +2431,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Manufacturers must establish, implement and maintain procedures and measures to ensure the manufacture of financial instruments complies with the requirements on proper management of conflicts of interest (see SYSC 10.1.7R), including remuneration.</t>
+          <t>In doing so, a manufacturer must assess for each financial instrument at least the following:</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2448,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>PROD 3.2.28</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2535,12 +2463,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>adversely affect end clients; or</t>
+          <t>whether the financial instrument remains consistent with the needs, characteristics and objectives of the identified target market;</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2478,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>PROD 3.2.28</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2565,12 +2493,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>lead to problems with market integrity by enabling the firm to mitigate and/or dispose of its own risks or exposure to the underlying assets of the product where the firm already holds the underlying assets on own account.</t>
+          <t>whether the intended distribution strategy remains appropriate;</t>
         </is>
       </c>
     </row>
@@ -2580,7 +2508,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PROD 3.2.29</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2593,10 +2521,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Each time a financial instrument is manufacturedmanufacturers must analyse potential conflicts of interests.</t>
+          <t>whether the financial instrument is being distributed to the target market; and</t>
         </is>
       </c>
     </row>
@@ -2606,7 +2538,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>PROD 3.2.30</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2621,12 +2553,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(d)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>an exposure opposite to the one previously held by the manufacturer itself; or</t>
+          <t>whether the financial instrument is reaching clients for whose needs, characteristics and objectives the financial instrument is not compatible.</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2568,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PROD 3.2.30</t>
+          <t>PROD 3.2.19</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2649,14 +2581,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>an exposure opposite to the one that the manufacturer wants to hold after the sale of the product.</t>
+          <t>[Note: article 16(3) of MiFID II and article 9(14) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -2666,12 +2594,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PROD 3.2.31</t>
+          <t>PROD 3.2.20</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2682,7 +2610,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Manufacturers must ensure that their management bodies have effective control over their product governance process.</t>
+          <t>In carrying out the reviews in PROD 3.2.19Rmanufacturers should collect and analyse appropriate management information to detect patterns in distribution as compared with the planned target market in order to assess the performance of the distribution channels through which a financial instrument is being distributed.</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2620,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PROD 3.2.32</t>
+          <t>PROD 3.2.21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2705,10 +2633,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>The development and periodic review of product governance arrangements must be monitored by the person allocated the compliance oversight function of a firm in order to detect any risk of failure by the manufacturer to comply with applicable provisions of PROD.</t>
+          <t>When reviewing the financial instruments it manufactures, a firm should communicate to the end client contractual “breakpoints” such as the end of a long tie-in period that may have a material impact on the end client that the end client cannot reasonably be expected to recall or know about already.</t>
         </is>
       </c>
     </row>
@@ -2718,12 +2650,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PROD 3.2.32</t>
+          <t>PROD 3.2.21</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2731,10 +2663,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[Note: article 9(6) and article 9(7) of the MiFID Delegated Directive]</t>
+          <t>If the manufacturer does not know the identity of the end client, it should communicate any contractual breakpoints to the distributor.</t>
         </is>
       </c>
     </row>
@@ -2744,7 +2680,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PROD 3.2.33</t>
+          <t>PROD 3.2.22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2760,7 +2696,7 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>All relevant staff involved in the manufacturing of financial instruments must possess the necessary expertise to understand the characteristics and risks of the financial instruments they intend to manufacture.</t>
+          <t>Manufacturers must:</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2706,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PROD 3.2.33</t>
+          <t>PROD 3.2.22</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2783,10 +2719,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[Note: article 9(5) of the MiFID Delegated Directive]</t>
+          <t>review financial instruments prior to any further issue or re-launch if they are aware of any event that could materially affect the potential risk to clients; and</t>
         </is>
       </c>
     </row>
@@ -2796,12 +2736,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PROD 3.2.34</t>
+          <t>PROD 3.2.22</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2809,10 +2749,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Firms should have regard to SYSC 5.1, and in particular SYSC 5.1.5AB R, when considering whether their relevant staff have the necessary expertise.</t>
+          <t>identify crucial events that would affect the potential risk or return expectations of the financial instrument.</t>
         </is>
       </c>
     </row>
@@ -2822,12 +2766,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PROD 3.2.35</t>
+          <t>PROD 3.2.23</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2838,7 +2782,7 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Compliance reports to the management body must include information about the financial instruments that the firm has manufactured, including information on the distribution strategy.</t>
+          <t>Crucial events that would affect the potential risk or return expectations of the financial instrument include:</t>
         </is>
       </c>
     </row>
@@ -2848,23 +2792,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PROD 3.2.36</t>
+          <t>PROD 3.2.23</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Manufacturers must make the compliance reports available to the FCA2 on request.</t>
+          <t>the crossing of a threshold that will affect the return profile of the financial instrument; or</t>
         </is>
       </c>
     </row>
@@ -2874,23 +2822,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PROD 3.2.36</t>
+          <t>PROD 3.2.23</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr"/>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[Note: article 9(6) MiFID Delegated Directive]</t>
+          <t>the solvency of certain issuers whose securities and guarantees may impact the performance of the financial instrument.</t>
         </is>
       </c>
     </row>
@@ -2900,7 +2852,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>PROD 3.3.1</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2910,17 +2862,13 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>understand the financial instruments it distributes to clients;</t>
+          <t>When a crucial event affecting the potential risk or return expectation of the financial instrument occurs, a manufacturer must take appropriate action, which may consist of:</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2878,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PROD 3.3.1</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2940,17 +2888,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>assess the compatibility of the financial instruments with the needs of the clients to whom it distributes investment services, taking into account the manufacturer’s identified target market of end clients; and</t>
+          <t>the provision of any relevant information on the event and its consequences on the financial instrument to the clients or distributors of the financial instrument if the manufacturer does not offer or sell the financial instrument directly to the clients;</t>
         </is>
       </c>
     </row>
@@ -2960,7 +2908,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>PROD 3.3.1</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2970,17 +2918,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ensure that financial instruments are distributed only when this is in the best interests of the client (see COBS 2.1.1R(1)).</t>
+          <t>changing the product approval process;</t>
         </is>
       </c>
     </row>
@@ -2990,23 +2938,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>PROD 3.3.2</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>A distributor should consider what impact the selection of a given manufacturer could have on the end client in terms of charges or the financial strength of the manufacturer, or possibly, where information is available to the distributor, how efficiently and reliably the manufacturer will deal with the distributor or end client at the point of sale (or subsequently, such as when queries/complaints arise, claims are made, or a financial instrument reaches maturity).</t>
+          <t>stopping further issuance of the financial instrument;</t>
         </is>
       </c>
     </row>
@@ -3016,7 +2968,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>PROD 3.3.3</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3029,10 +2981,14 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Distributors must obtain from manufacturers subject to PROD 3.22 information to gain the necessary understanding and knowledge of the financial instruments they intend to distribute in order to ensure that the financial instruments will be distributed in accordance with the needs, characteristics and objectives of the target market.</t>
+          <t>changing the financial instrument to avoid unfair contract terms;</t>
         </is>
       </c>
     </row>
@@ -3042,7 +2998,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PROD 3.3.3</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3055,10 +3011,14 @@
           <t>01/01/2021</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[Note:  article 16(3) MiFID and article 10(2) MiFID Delegated Directive]</t>
+          <t>considering whether the sales channels through which the financial instrument is sold are appropriate where the manufacturer becomes aware that the financial instrument is not being sold as envisaged;</t>
         </is>
       </c>
     </row>
@@ -3068,27 +3028,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>PROD 3.3.4</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(6)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>should consider whether they understand the materials provided by the manufacturer or distributor earlier in the sales chain;</t>
+          <t>contacting the distributor to discuss a modification of the distribution process;</t>
         </is>
       </c>
     </row>
@@ -3098,27 +3058,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>PROD 3.3.4</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(7)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>should ask the manufacturer to supply additional information or training where this seems necessary to understand the financial instrument or investment service adequately;</t>
+          <t>terminating the relationship with the distributor; or</t>
         </is>
       </c>
     </row>
@@ -3128,27 +3088,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PROD 3.3.4</t>
+          <t>PROD 3.2.24</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(8)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>should not distribute the financial instrument or investment service if they do not understand it sufficiently; and</t>
+          <t>informing the FCA.2</t>
         </is>
       </c>
     </row>
@@ -3158,12 +3118,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>PROD 3.3.4</t>
+          <t>PROD 3.2.25</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3171,14 +3131,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>when providing information to another distributor in a distribution chain, should consider how the further distributor will use the information, such as whether it will be given to end clients. Firms should consider what information the further distributor requires and the likely level of knowledge and understanding of the further distributor and what medium may suit it best for the transmission of information.</t>
+          <t>Manufacturers must review financial instruments at regular intervals to assess whether they function as intended.</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3144,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PROD 3.3.5</t>
+          <t>PROD 3.2.26</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3198,17 +3154,13 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Distributors must take all reasonable steps to comply with PROD 3.3 when distributing financial instruments manufactured by any firm to which product governance requirements in2PROD 3.2 do not apply.</t>
+          <t>Manufacturers must determine how regularly to review their financial instruments based on relevant factors including factors linked to the complexity or the innovative nature of the investment strategies pursued.</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3170,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>PROD 3.3.5</t>
+          <t>PROD 3.2.26</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3228,17 +3180,13 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">As part of this, distributors must put in place effective arrangements to ensure that they obtain sufficient, adequate and reliable information from the manufacturer about the financial instruments to ensure that they will be distributed in accordance with the characteristics, objectives and needs of the target market. </t>
+          <t>[Note: article 9(15) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -3248,7 +3196,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>PROD 3.3.5</t>
+          <t>PROD 3.2.27</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3258,17 +3206,13 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">This rule applies to financial instruments sold on either the primary or secondary market. </t>
+          <t>Manufacturers must establish, implement and maintain procedures and measures to ensure the manufacture of financial instruments complies with the requirements on proper management of conflicts of interest (see SYSC 10.1.7R), including remuneration.</t>
         </is>
       </c>
     </row>
@@ -3278,7 +3222,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>PROD 3.3.6</t>
+          <t>PROD 3.2.28</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3291,14 +3235,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>the degree to which publicly available information is obtainable; and</t>
+          <t>Manufacturers must ensure that the design of each financial instrument, including its features, does not:</t>
         </is>
       </c>
     </row>
@@ -3308,7 +3248,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PROD 3.3.6</t>
+          <t>PROD 3.2.28</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3323,12 +3263,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">the complexity of the financial instrument. </t>
+          <t>adversely affect end clients; or</t>
         </is>
       </c>
     </row>
@@ -3338,7 +3278,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PROD 3.3.7</t>
+          <t>PROD 3.2.28</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3351,10 +3291,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Where information relevant to the obligation in PROD 3.3.5R is not publicly available, distributors must take all reasonable steps to obtain such relevant information from the manufacturer or its agent.</t>
+          <t>lead to problems with market integrity by enabling the firm to mitigate and/or dispose of its own risks or exposure to the underlying assets of the product where the firm already holds the underlying assets on own account.</t>
         </is>
       </c>
     </row>
@@ -3364,23 +3308,23 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>PROD 3.3.8</t>
+          <t>PROD 3.2.28</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>21/07/2019</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Acceptable publicly available information is information which is clear, reliable and produced to meet regulatory requirements, such as disclosure requirements under the transparency rules or the Prospectus Regulation3.</t>
+          <t>[Note: article 9(2) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -3390,23 +3334,23 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>PROD 3.3.8</t>
+          <t>PROD 3.2.29</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>21/07/2019</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[Note: article 10(2) of the MiFID Delegated Directive]</t>
+          <t>Each time a financial instrument is manufacturedmanufacturers must analyse potential conflicts of interests.</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>PROD 3.3.9</t>
+          <t>PROD 3.2.30</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3432,7 +3376,7 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Distributors must determine the target market for the respective financial instrument, even if the target market was not defined by the manufacturer.</t>
+          <t>In analysing potential conflicts of interest manufacturers must assess whether the financial instrument creates a situation where end clients may be adversely affected if end clients take:</t>
         </is>
       </c>
     </row>
@@ -3442,7 +3386,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PROD 3.3.9</t>
+          <t>PROD 3.2.30</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3455,10 +3399,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[Note: article 10(1) of the MiFID Delegated Directive]</t>
+          <t>an exposure opposite to the one previously held by the manufacturer itself; or</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3416,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>PROD 3.3.10</t>
+          <t>PROD 3.2.30</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3483,12 +3431,12 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>the information obtained from manufacturers; and</t>
+          <t>an exposure opposite to the one that the manufacturer wants to hold after the sale of the product.</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3446,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PROD 3.3.10</t>
+          <t>PROD 3.2.30</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3511,14 +3459,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>information they have on their own clients.</t>
+          <t>[Note: article 9(3) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -3528,12 +3472,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>PROD 3.3.11</t>
+          <t>PROD 3.2.31</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3541,14 +3485,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t xml:space="preserve">the nature of the financial instruments to be offered or recommended and how they fit with end clients’ needs and risk appetite; </t>
+          <t>Manufacturers must ensure that their management bodies have effective control over their product governance process.</t>
         </is>
       </c>
     </row>
@@ -3558,12 +3498,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>PROD 3.3.11</t>
+          <t>PROD 3.2.32</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3571,14 +3511,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>the impact of charges on end clients;</t>
+          <t>The development and periodic review of product governance arrangements must be monitored by the person allocated the compliance oversight function of a firm in order to detect any risk of failure by the manufacturer to comply with applicable provisions of PROD.</t>
         </is>
       </c>
     </row>
@@ -3588,12 +3524,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>PROD 3.3.11</t>
+          <t>PROD 3.2.32</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3601,14 +3537,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>the financial strength of the manufacturer; and</t>
+          <t>[Note: article 9(6) and article 9(7) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -3618,12 +3550,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>PROD 3.3.11</t>
+          <t>PROD 3.2.33</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3631,14 +3563,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(4) </t>
-        </is>
-      </c>
+      <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>where information is available on the manufacturer’s processes, how efficiently and reliably the manufacturer will deal with the end client at the point of sale or subsequently, such as when complaints arise, claims are made or the financial instrument reaches maturity.</t>
+          <t>All relevant staff involved in the manufacturing of financial instruments must possess the necessary expertise to understand the characteristics and risks of the financial instruments they intend to manufacture.</t>
         </is>
       </c>
     </row>
@@ -3648,12 +3576,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PROD 3.3.12</t>
+          <t>PROD 3.2.33</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3664,7 +3592,7 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>The target market identified by distributors for each financial instrument should be identified at a sufficiently granular level.</t>
+          <t>[Note: article 9(5) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3602,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>PROD 3.3.13</t>
+          <t>PROD 3.2.34</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3690,7 +3618,7 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Where a distributor is part of a distribution chain, the information referred to in PROD 3.3.10R(2) should include information on the intended end client.</t>
+          <t>Firms should have regard to SYSC 5.1, and in particular SYSC 5.1.5AB R, when considering whether their relevant staff have the necessary expertise.</t>
         </is>
       </c>
     </row>
@@ -3700,7 +3628,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PROD 3.3.14</t>
+          <t>PROD 3.2.35</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3716,7 +3644,7 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Where a firm acts both as a manufacturer and a distributor, only one target market assessment is required.</t>
+          <t>Compliance reports to the management body must include information about the financial instruments that the firm has manufactured, including information on the distribution strategy.</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3654,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>PROD 3.3.14</t>
+          <t>PROD 3.2.36</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3736,13 +3664,13 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[Note: article 10(2) of the MiFID Delegated Directive]</t>
+          <t>Manufacturers must make the compliance reports available to the FCA2 on request.</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3680,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>PROD 3.3.15</t>
+          <t>PROD 3.2.36</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3762,17 +3690,13 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Distributors must have in place adequate product governance arrangements to ensure that:</t>
+          <t>[Note: article 9(6) MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -3782,7 +3706,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>PROD 3.3.15</t>
+          <t>PROD 3.3.1</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3795,14 +3719,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>the financial instruments and investment services they intend to distribute are compatible with the needs, characteristics and objectives of the identified target market; and</t>
+          <t>1A distributor must:</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3732,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>PROD 3.3.15</t>
+          <t>PROD 3.3.1</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3827,12 +3747,12 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>the intended distribution strategy is consistent with the identified target market.</t>
+          <t>understand the financial instruments it distributes to clients;</t>
         </is>
       </c>
     </row>
@@ -3842,7 +3762,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PROD 3.3.15</t>
+          <t>PROD 3.3.1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3857,12 +3777,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Distributors must appropriately identify and assess the circumstances and needs of the clients they intend to focus on to ensure that their clients’ interests are not compromised as a result of commercial or funding pressures.</t>
+          <t>assess the compatibility of the financial instruments with the needs of the clients to whom it distributes investment services, taking into account the manufacturer’s identified target market of end clients; and</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3792,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>PROD 3.3.15</t>
+          <t>PROD 3.3.1</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3887,12 +3807,12 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Distributors must identify any groups of end clients for whose needs, characteristics and objectives the financial instrument or investment service is not compatible.</t>
+          <t>ensure that financial instruments are distributed only when this is in the best interests of the client (see COBS 2.1.1R(1)).</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3822,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PROD 3.3.16</t>
+          <t>PROD 3.3.1</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3918,7 +3838,7 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Distributors must periodically review their product governance arrangements under PROD 3.3.15R and must take appropriate actions where necessary to ensure they remain robust and fit for their purpose.</t>
+          <t>[Note: article 24(2) of MiFID]</t>
         </is>
       </c>
     </row>
@@ -3928,12 +3848,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PROD 3.3.16</t>
+          <t>PROD 3.3.2</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3944,7 +3864,7 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[Note: article 16(3) of MiFID and article 10(4) of the MiFID Delegated Directive]</t>
+          <t>A distributor should consider what impact the selection of a given manufacturer could have on the end client in terms of charges or the financial strength of the manufacturer, or possibly, where information is available to the distributor, how efficiently and reliably the manufacturer will deal with the distributor or end client at the point of sale (or subsequently, such as when queries/complaints arise, claims are made, or a financial instrument reaches maturity).</t>
         </is>
       </c>
     </row>
@@ -3954,23 +3874,23 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROD 3.3.17</t>
+          <t>PROD 3.3.3</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>In the design of investment services, to help clients make an informed investment decision, firms should consider the support clients need before they reach the product selection part of the process.</t>
+          <t>Distributors must obtain from manufacturers subject to PROD 3.22 information to gain the necessary understanding and knowledge of the financial instruments they intend to distribute in order to ensure that the financial instruments will be distributed in accordance with the needs, characteristics and objectives of the target market.</t>
         </is>
       </c>
     </row>
@@ -3980,7 +3900,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PROD 3.3.18</t>
+          <t>PROD 3.3.3</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3990,17 +3910,13 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>disclosure (see COBS 4 and COBS 14.3A);</t>
+          <t>[Note:  article 16(3) MiFID and article 10(2) MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -4010,12 +3926,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PROD 3.3.18</t>
+          <t>PROD 3.3.4</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4023,14 +3939,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>suitability (see COBS 9A);</t>
+          <t>In ensuring that they have obtained sufficient information about the financial instruments they distribute and in ensuring they understand the financial instruments or investment servicesdistributed, distributors:</t>
         </is>
       </c>
     </row>
@@ -4040,12 +3952,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PROD 3.3.18</t>
+          <t>PROD 3.3.4</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4055,12 +3967,12 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>appropriateness (see COBS 10A);</t>
+          <t>should consider whether they understand the materials provided by the manufacturer or distributor earlier in the sales chain;</t>
         </is>
       </c>
     </row>
@@ -4070,12 +3982,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PROD 3.3.18</t>
+          <t>PROD 3.3.4</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4085,12 +3997,12 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">(4) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>inducements (see COBS 2.3A); and</t>
+          <t>should ask the manufacturer to supply additional information or training where this seems necessary to understand the financial instrument or investment service adequately;</t>
         </is>
       </c>
     </row>
@@ -4100,12 +4012,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PROD 3.3.18</t>
+          <t>PROD 3.3.4</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4115,12 +4027,12 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">(5) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t xml:space="preserve">conflicts of interest (see SYSC 10.1). </t>
+          <t>should not distribute the financial instrument or investment service if they do not understand it sufficiently; and</t>
         </is>
       </c>
     </row>
@@ -4130,7 +4042,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PROD 3.3.19</t>
+          <t>PROD 3.3.4</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -4143,10 +4055,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Distributors should take particular care to ensure compliance with PROD 3.3.18R when they intend to distribute new financial instruments or there are variations to the investment services they provide.</t>
+          <t>when providing information to another distributor in a distribution chain, should consider how the further distributor will use the information, such as whether it will be given to end clients. Firms should consider what information the further distributor requires and the likely level of knowledge and understanding of the further distributor and what medium may suit it best for the transmission of information.</t>
         </is>
       </c>
     </row>
@@ -4156,23 +4072,27 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PROD 3.3.19</t>
+          <t>PROD 3.3.5</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[Note: article 10(3) of the MiFID Delegated Directive]</t>
+          <t>Distributors must take all reasonable steps to comply with PROD 3.3 when distributing financial instruments manufactured by any firm to which product governance requirements in2PROD 3.2 do not apply.</t>
         </is>
       </c>
     </row>
@@ -4182,7 +4102,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PROD 3.3.20</t>
+          <t>PROD 3.3.5</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -4192,13 +4112,17 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>The development and periodic review of product governance arrangements must be monitored by the person allocated the compliance oversight function of a firm in order to detect any risk of failure by the distributor to comply with applicable provisions of PROD.</t>
+          <t>As part of this, distributors must put in place effective arrangements to ensure that they obtain sufficient, adequate and reliable information from the manufacturer about the financial instruments to ensure that they will be distributed in accordance with the characteristics, objectives and needs of the target market.</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4132,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PROD 3.3.20</t>
+          <t>PROD 3.3.5</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4218,13 +4142,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[Note: article 10(6) of the MiFID Delegated Directive]</t>
+          <t>This rule applies to financial instruments sold on either the primary or secondary market.</t>
         </is>
       </c>
     </row>
@@ -4234,7 +4162,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PROD 3.3.21</t>
+          <t>PROD 3.3.6</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -4247,14 +4175,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>the range of financial instruments the firm offers or recommends; and</t>
+          <t>The obligation to obtain adequate and reliable information applies proportionately depending on:</t>
         </is>
       </c>
     </row>
@@ -4264,7 +4188,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PROD 3.3.21</t>
+          <t>PROD 3.3.6</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -4279,12 +4203,12 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>the investment services provided to the respective target markets.</t>
+          <t>the degree to which publicly available information is obtainable; and</t>
         </is>
       </c>
     </row>
@@ -4294,7 +4218,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PROD 3.3.22</t>
+          <t>PROD 3.3.6</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -4309,12 +4233,12 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>the characteristics and risks of the financial instruments that the firm intends to distribute;</t>
+          <t>the complexity of the financial instrument.</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4248,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>PROD 3.3.22</t>
+          <t>PROD 3.3.6</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -4337,14 +4261,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>the investment services provided by the firm; and</t>
+          <t>[Note: articles 10(1) and 10(2) of the MiFID Delegated Directive)</t>
         </is>
       </c>
     </row>
@@ -4354,7 +4274,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>PROD 3.3.22</t>
+          <t>PROD 3.3.7</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4367,14 +4287,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(3) </t>
-        </is>
-      </c>
+      <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>the needs, characteristics and objectives of the identified target market.</t>
+          <t>Where information relevant to the obligation in PROD 3.3.5R is not publicly available, distributors must take all reasonable steps to obtain such relevant information from the manufacturer or its agent.</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4300,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>PROD 3.3.23</t>
+          <t>PROD 3.3.8</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4394,13 +4310,13 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>21/07/2019</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Firms should have regard to SYSC 5.1, and in particular SYSC 5.1.5AB R, when considering whether their relevant staff have the necessary expertise.</t>
+          <t>Acceptable publicly available information is information which is clear, reliable and produced to meet regulatory requirements, such as disclosure requirements under the transparency rules or the Prospectus Regulation3.</t>
         </is>
       </c>
     </row>
@@ -4410,23 +4326,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PROD 3.3.24</t>
+          <t>PROD 3.3.8</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>03/01/2018</t>
+          <t>21/07/2019</t>
         </is>
       </c>
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Compliance reports to the management body must include information about the financial instrumentsdistributed by the firm and the investment services provided.</t>
+          <t>[Note: article 10(2) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -4436,7 +4352,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PROD 3.3.25</t>
+          <t>PROD 3.3.9</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4446,13 +4362,13 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>A distributor shall make the compliance reports available to the FCA2 on request.</t>
+          <t>Distributors must determine the target market for the respective financial instrument, even if the target market was not defined by the manufacturer.</t>
         </is>
       </c>
     </row>
@@ -4462,7 +4378,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PROD 3.3.25</t>
+          <t>PROD 3.3.9</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4472,13 +4388,13 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>03/01/2018</t>
         </is>
       </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[Note: article 10(8) of the MiFID Delegated Directive]</t>
+          <t>[Note: article 10(1) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -4488,7 +4404,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PROD 3.3.26</t>
+          <t>PROD 3.3.10</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4504,7 +4420,7 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Distributors must regularly review the financial instruments they distribute and the investment services they provide, taking into account any event that could materially affect the potential risk to the identified target market.</t>
+          <t>Distributors must identify the target market and their distribution strategy using:</t>
         </is>
       </c>
     </row>
@@ -4514,7 +4430,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PROD 3.3.27</t>
+          <t>PROD 3.3.10</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4529,12 +4445,12 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>whether the financial instrument or investment service remains consistent with the needs, characteristics and objectives of the identified target market; and</t>
+          <t>the information obtained from manufacturers; and</t>
         </is>
       </c>
     </row>
@@ -4544,7 +4460,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PROD 3.3.27</t>
+          <t>PROD 3.3.10</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4559,12 +4475,12 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>whether the intended distribution strategy remains appropriate.</t>
+          <t>information they have on their own clients.</t>
         </is>
       </c>
     </row>
@@ -4574,12 +4490,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PROD 3.3.28</t>
+          <t>PROD 3.3.11</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4587,14 +4503,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>reconsidering the target market; and/or</t>
+          <t>In identifying the target market and creating a distribution strategy, distributors should consider:</t>
         </is>
       </c>
     </row>
@@ -4604,12 +4516,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PROD 3.3.28</t>
+          <t>PROD 3.3.11</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4619,12 +4531,12 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>updating its product governance arrangements.</t>
+          <t>the nature of the financial instruments to be offered or recommended and how they fit with end clients’ needs and risk appetite;</t>
         </is>
       </c>
     </row>
@@ -4634,7 +4546,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>PROD 3.3.29</t>
+          <t>PROD 3.3.11</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4647,10 +4559,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>A distributor may need to take action under PROD 3.3.28R in circumstances where the financial instrument becomes very illiquid or very volatile due to market changes.</t>
+          <t>the impact of charges on end clients;</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4576,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>PROD 3.3.29</t>
+          <t>PROD 3.3.11</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4673,10 +4589,14 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[Note: article 16(3) of MiFID and article 10(5) of the MiFID Delegated Directive]</t>
+          <t>the financial strength of the manufacturer; and</t>
         </is>
       </c>
     </row>
@@ -4686,12 +4606,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>PROD 3.3.30</t>
+          <t>PROD 3.3.11</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4701,12 +4621,12 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(4)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>information on sales; and</t>
+          <t>where information is available on the manufacturer’s processes, how efficiently and reliably the manufacturer will deal with the end client at the point of sale or subsequently, such as when complaints arise, claims are made or the financial instrument reaches maturity.</t>
         </is>
       </c>
     </row>
@@ -4716,12 +4636,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>PROD 3.3.30</t>
+          <t>PROD 3.3.12</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4729,14 +4649,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>where appropriate, information on the reviews carried out under PROD 3.3.26R to PROD 3.3.28R.</t>
+          <t>The target market identified by distributors for each financial instrument should be identified at a sufficiently granular level.</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4662,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>PROD 3.3.31</t>
+          <t>PROD 3.3.13</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4759,14 +4675,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Information on sales should include information on any sales made outside the target market. </t>
+          <t>Where a distributor is part of a distribution chain, the information referred to in PROD 3.3.10R(2) should include information on the intended end client.</t>
         </is>
       </c>
     </row>
@@ -4776,12 +4688,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>PROD 3.3.31</t>
+          <t>PROD 3.3.14</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4789,14 +4701,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
+      <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>In complying with PROD 3.3.30R it is not necessary to report every sale to the manufacturer. Distributors should provide the data necessary for the manufacturer to review the financial instrument and check that it remains consistent with the needs, characteristics and objectives of the target market defined by the manufacturer. Relevant information could include:</t>
+          <t>Where a firm acts both as a manufacturer and a distributor, only one target market assessment is required.</t>
         </is>
       </c>
     </row>
@@ -4806,12 +4714,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PROD 3.3.31</t>
+          <t>PROD 3.3.14</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4819,14 +4727,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(a) </t>
-        </is>
-      </c>
+      <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>summary information of the types of clients;</t>
+          <t>[Note: article 10(2) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -4836,12 +4740,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PROD 3.3.31</t>
+          <t>PROD 3.3.15</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4851,12 +4755,12 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">(b) </t>
+          <t>(1)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>a summary of complaints received; and</t>
+          <t>Distributors must have in place adequate product governance arrangements to ensure that:</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4770,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PROD 3.3.31</t>
+          <t>PROD 3.3.15</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4881,12 +4785,12 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">(c) </t>
+          <t>(a)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>responses from clients to questions suggested by the manufacturer for the purposes of obtaining feedback from a client sample.</t>
+          <t>the financial instruments and investment services they intend to distribute are compatible with the needs, characteristics and objectives of the identified target market; and</t>
         </is>
       </c>
     </row>
@@ -4896,12 +4800,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PROD 3.3.31</t>
+          <t>PROD 3.3.15</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4911,12 +4815,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">(3) </t>
+          <t>(b)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>In determining when providing information on the reviews carried out under PROD 3.3.26R to PROD3.3.28R is appropriate, a distributor should have regard to the requirements on the manufacturer in PROD 3.2. Information on the reviews should be shared if the manufacturer requests it.</t>
+          <t>the intended distribution strategy is consistent with the identified target market.</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4830,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PROD 3.3.32</t>
+          <t>PROD 3.3.15</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4941,12 +4845,12 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">(1) </t>
+          <t>(2)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>A firm which distributesfinancial instruments or investment services to end clients is responsible for ensuring that the obligations in this chapter are met in respect of any financial instrument or investment service it distributes to an end client.</t>
+          <t>Distributors must appropriately identify and assess the circumstances and needs of the clients they intend to focus on to ensure that their clients’ interests are not compromised as a result of commercial or funding pressures.</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4860,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PROD 3.3.32</t>
+          <t>PROD 3.3.15</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4971,12 +4875,12 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">(2) </t>
+          <t>(3)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t xml:space="preserve">A firm which distributes financial instruments to clients which are not end clients must, in addition to complying with the rules in this chapter, consider if they are also undertaking a manufacturing role and, if they are, also apply PROD 3.2. </t>
+          <t>Distributors must identify any groups of end clients for whose needs, characteristics and objectives the financial instrument or investment service is not compatible.</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4890,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PROD 3.3.33</t>
+          <t>PROD 3.3.15</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4999,14 +4903,10 @@
           <t>03/01/2018</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(1) </t>
-        </is>
-      </c>
+      <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ensure that relevant product information is passed from the manufacturer to the final distributor in the chain; and</t>
+          <t>[Note: article 10(2) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
@@ -5016,27 +4916,1427 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
+          <t>PROD 3.3.16</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Distributors must periodically review their product governance arrangements under PROD 3.3.15R and must take appropriate actions where necessary to ensure they remain robust and fit for their purpose.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>PROD 3.3.16</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[Note: article 16(3) of MiFID and article 10(4) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>PROD 3.3.17</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>In the design of investment services, to help clients make an informed investment decision, firms should consider the support clients need before they reach the product selection part of the process.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>PROD 3.3.18</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Distributors must have in place procedures and measures to ensure that when deciding the range of financial instruments and investment services to be distributed, and the target market, all applicable rules are complied with, including but not limited to:</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>PROD 3.3.18</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>disclosure (see COBS 4 and COBS 14.3A);</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>PROD 3.3.18</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>suitability (see COBS 9A);</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>PROD 3.3.18</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>appropriateness (see COBS 10A);</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>PROD 3.3.18</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>(4)</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>inducements (see COBS 2.3A); and</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>PROD 3.3.18</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>(5)</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>conflicts of interest (see SYSC 10.1).</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>PROD 3.3.19</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Distributors should take particular care to ensure compliance with PROD 3.3.18R when they intend to distribute new financial instruments or there are variations to the investment services they provide.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>PROD 3.3.19</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>[Note: article 10(3) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>PROD 3.3.20</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>The development and periodic review of product governance arrangements must be monitored by the person allocated the compliance oversight function of a firm in order to detect any risk of failure by the distributor to comply with applicable provisions of PROD.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>PROD 3.3.20</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>[Note: article 10(6) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>PROD 3.3.21</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>The management body of a distributor must have effective control over the firm’s product governance process to determine:</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>PROD 3.3.21</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>the range of financial instruments the firm offers or recommends; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>PROD 3.3.21</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>the investment services provided to the respective target markets.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>PROD 3.3.21</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>[Note: article 10(8) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>PROD 3.3.22</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>All relevant staff must possess the necessary expertise to understand:</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>PROD 3.3.22</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>the characteristics and risks of the financial instruments that the firm intends to distribute;</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>PROD 3.3.22</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>the investment services provided by the firm; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>PROD 3.3.22</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>the needs, characteristics and objectives of the identified target market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>PROD 3.3.22</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>[Note: article 10(7) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>PROD 3.3.23</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Firms should have regard to SYSC 5.1, and in particular SYSC 5.1.5AB R, when considering whether their relevant staff have the necessary expertise.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>PROD 3.3.24</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Compliance reports to the management body must include information about the financial instrumentsdistributed by the firm and the investment services provided.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>PROD 3.3.25</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>A distributor shall make the compliance reports available to the FCA2 on request.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>PROD 3.3.25</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>[Note: article 10(8) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>PROD 3.3.26</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Distributors must regularly review the financial instruments they distribute and the investment services they provide, taking into account any event that could materially affect the potential risk to the identified target market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>PROD 3.3.27</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>In carrying out the review in PROD 3.3.26R, distributors must assess at least:</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>PROD 3.3.27</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>whether the financial instrument or investment service remains consistent with the needs, characteristics and objectives of the identified target market; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>PROD 3.3.27</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>whether the intended distribution strategy remains appropriate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>PROD 3.3.28</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>If a distributor becomes aware that it has wrongly identified the target market for a specific financial instrument or investment service, or the financial instrument or investment service no longer meets the circumstances of the identified target market, it must take appropriate steps, including at least:</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>PROD 3.3.28</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>reconsidering the target market; and/or</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>PROD 3.3.28</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>updating its product governance arrangements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>PROD 3.3.29</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>A distributor may need to take action under PROD 3.3.28R in circumstances where the financial instrument becomes very illiquid or very volatile due to market changes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>PROD 3.3.29</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>[Note: article 16(3) of MiFID and article 10(5) of the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>PROD 3.3.30</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>To support the reviews carried out by manufacturers under PROD 3.2.19R to PROD 3.2.26R, a distributor must provide to the manufacturer of each financial instrument it distributes:</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>PROD 3.3.30</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>information on sales; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>PROD 3.3.30</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>where appropriate, information on the reviews carried out under PROD 3.3.26R to PROD 3.3.28R.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Information on sales should include information on any sales made outside the target market.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>In complying with PROD 3.3.30R it is not necessary to report every sale to the manufacturer. Distributors should provide the data necessary for the manufacturer to review the financial instrument and check that it remains consistent with the needs, characteristics and objectives of the target market defined by the manufacturer. Relevant information could include:</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>(a)</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>summary information of the types of clients;</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>(b)</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>a summary of complaints received; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>(c)</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>responses from clients to questions suggested by the manufacturer for the purposes of obtaining feedback from a client sample.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>(3)</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>In determining when providing information on the reviews carried out under PROD 3.3.26R to PROD3.3.28R is appropriate, a distributor should have regard to the requirements on the manufacturer in PROD 3.2. Information on the reviews should be shared if the manufacturer requests it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>PROD 3.3.31</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[Note: article 10(9) of and recital 20 to the MiFID Delegated Directive]</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>PROD 3.3.32</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>A firm which distributesfinancial instruments or investment services to end clients is responsible for ensuring that the obligations in this chapter are met in respect of any financial instrument or investment service it distributes to an end client.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>PROD 3.3.32</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>A firm which distributes financial instruments to clients which are not end clients must, in addition to complying with the rules in this chapter, consider if they are also undertaking a manufacturing role and, if they are, also apply PROD 3.2.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
           <t>PROD 3.3.33</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>03/01/2018</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(2) </t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>A distributor which distributesfinancial instruments to other distributors must:</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>PROD 3.3.33</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>(1)</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ensure that relevant product information is passed from the manufacturer to the final distributor in the chain; and</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>PROD 3.3.33</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>(2)</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
         <is>
           <t>if the manufacturer requires information on product sales in order to comply with its obligations under PROD 3.2, enable them to obtain it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>PROD 3.3.33</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>03/01/2018</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[Note: article 10(10) of the MiFID Delegated Directive]</t>
         </is>
       </c>
     </row>
